--- a/pred_ohlcv/54_21/2019-10-29 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 SNT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1225091.531794772</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1515093.242294772</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1644992.305394772</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1645158.530560334</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1736752.240594771</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2388530.836425207</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2118679.457325207</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1695034.794802331</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1413012.833302331</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1422212.833302331</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1441612.833302331</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1928014.332102331</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1927814.332102331</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2000498.230802331</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2001976.413602331</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 SNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1417909.017994771</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1466418.433694771</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1506540.292394771</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1519940.292394771</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1509574.378494771</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1509574.378494771</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1348279.428794771</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1348279.428794771</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1448715.531794772</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1305091.531794772</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1225091.531794772</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1225091.531794772</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1515093.242294772</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1484200.242294772</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1520526.726794772</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1648194.425394772</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1644992.305394772</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1645058.530560334</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1645158.530560334</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1645092.305394772</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1650917.240594771</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1631752.240594771</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1736752.240594771</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1730049.344494771</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1730668.904394771</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1724068.904394771</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1730668.904394771</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1730168.904394771</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1732325.662394771</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1812440.966194771</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2413675.710425206</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2392575.710425206</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2388530.836425207</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>2171113.927625207</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>2118679.457325207</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1660946.443125207</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1702794.794802331</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1695034.794802331</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1413012.833302331</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1422212.833302331</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1441612.833302331</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1928014.332102331</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1927814.332102331</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2031825.257402331</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2001270.257402331</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2000498.230802331</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2001976.413602331</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
